--- a/biology/Botanique/Allium_obliquum/Allium_obliquum.xlsx
+++ b/biology/Botanique/Allium_obliquum/Allium_obliquum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium obliquum, nom commun « ail oblique » ou « ail vrillé », est une plante géophyte du genre Allium de la famille des Amaryllidacées présent en Eurasie et dont l’aire de répartition s’étend de la Roumanie à la Mongolie[1],[2],[3],[4],[5],[6],[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium obliquum, nom commun « ail oblique » ou « ail vrillé », est une plante géophyte du genre Allium de la famille des Amaryllidacées présent en Eurasie et dont l’aire de répartition s’étend de la Roumanie à la Mongolie.
 Il a pour synonymes :
 Allium exaltatum Kar. &amp; Kir. ex Ledeb.
 Allium luteum F.Dietr.
@@ -520,9 +532,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse naturellement dans les prairies, et les pentes boisées des forêts du nord-ouest du Tibet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse naturellement dans les prairies, et les pentes boisées des forêts du nord-ouest du Tibet.
 Et il est également largement cultivé ailleurs comme plante ornementale.
 </t>
         </is>
@@ -552,9 +566,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium obliquum produit un bulbe en forme d’œuf atteignant 3 cm de long. La hampe florale mesure jusqu’à 100 cm de haut, de section ronde. Les feuilles sont plates, plus courtes que la hampe, jusqu’à 2 mm de largeur. Les ombelles sont sphériques, avec de nombreuses fleurs jaunes serrées[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium obliquum produit un bulbe en forme d’œuf atteignant 3 cm de long. La hampe florale mesure jusqu’à 100 cm de haut, de section ronde. Les feuilles sont plates, plus courtes que la hampe, jusqu’à 2 mm de largeur. Les ombelles sont sphériques, avec de nombreuses fleurs jaunes serrées,.
 </t>
         </is>
       </c>
